--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_273.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_273.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,610 +488,660 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_132</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_84</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.0945054945054945</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['F:maj', 'F:7/D#', 'A#:maj/D'], ['F:7/D#', 'A#:maj/D', 'F:maj/C'], ['F:maj', 'C:7/A#', 'F:maj/A'], ['C:7', 'F:maj', 'F:maj']]</t>
-        </is>
+          <t>jaah_41</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_205</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.0605854322668482</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['D#:maj', 'D#:7', 'G#:maj'], ['D#:7/C#', 'G#:maj/C', 'D#:maj/A#'], ['D#:maj/A#', 'A#:7', 'D#:maj'], ['A#:7', 'D#:maj', 'D#:maj']]</t>
+          <t>[['G:min7', 'C:7', 'F', 'C:7', 'F']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(56.44, 65.46), (61.68, 67.26), (74.9, 86.12), (6.38, 12.5)]</t>
+          <t>[['A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(15.64, 24.28), (62.26, 64.58), (64.08, 70.34), (64.58, 73.88)]</t>
+          <t>[('0:00:09.060000', '0:00:14.450000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
+          <t>[('0:01:06.800000', '0:01:20.280000')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>jaah_81</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_0</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1217948717948718</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['Bb', 'B:dim7', 'F/5', 'D:7']]</t>
-        </is>
+          <t>schubert-winterreise_175</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_146</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.1846153846153846</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['Gb', 'E:dim7/b3', 'Db/5', 'Bb:7']]</t>
+          <t>[['E:7', 'A:min', 'D:min', 'A:min']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(7.67, 11.25)]</t>
+          <t>[['F#:7/B', 'B:min', 'E:min/B', 'B:min']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(31.49263, 34.905963)]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
+          <t>[('0:00:45.760000', '0:00:55.480000')]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[('0:00:24.640000', '0:00:36.020000')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>jaah_21</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>jaah_43</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.07857142857142857</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['Eb:7', 'Ab', 'Ab'], ['Eb:7', 'Ab', 'Ab:7'], ['Ab/b5', 'Ab:7', 'Db/3'], ['Ab', 'Ab:7', 'Ab:7']]</t>
-        </is>
+          <t>isophonics_57</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>isophonics_155</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.1097744360902256</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['Bb:7', 'Eb', 'Eb'], ['Bb:7', 'Eb', 'Eb:7'], ['Eb', 'Eb:7', 'Ab'], ['Eb', 'Eb:7', 'Eb:7']]</t>
+          <t>[['G', 'C', 'G', 'C']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(47.0, 47.79), (14.91, 17.48), (5.32, 6.84), (15.42, 18.52)]</t>
+          <t>[['Ab', 'Db/5', 'Ab', 'Db/5']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(5.44, 10.01), (20.24, 22.43), (45.01, 49.44), (8.5, 12.95)]</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
+          <t>[('0:02:15.687550', '0:02:19.228594')]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[('0:04:21.828000', '0:04:33.028000')]</t>
+        </is>
+      </c>
       <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_288</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_16</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.1130952380952381</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['F#', 'B', 'E'], ['E', 'B', 'E']]</t>
-        </is>
+          <t>schubert-winterreise_112</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>isophonics_212</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.25</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'C:maj/E', 'F:maj'], ['F:maj', 'C:maj', 'F:maj']]</t>
+          <t>[['D#:maj', 'G#:maj', 'D#:maj', 'G#:maj', 'D#:maj']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(29.008095, 34.615714), (16.701519, 23.528185)]</t>
+          <t>[['D', 'G', 'D', 'G', 'D']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(208.74, 211.74), (1.64, 23.48)]</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
+          <t>[('0:01:58.400000', '0:02:02.360000')]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[('0:00:46.932280', '0:00:57.636679')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>isophonics_99</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_205</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.05988805970149254</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['G#:min', 'F#:min', 'B'], ['B', 'E', 'G#:min']]</t>
-        </is>
+          <t>schubert-winterreise_59</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>isophonics_282</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.2875</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['C#:min', 'B:min', 'E'], ['E', 'A', 'C#:min']]</t>
+          <t>[['A:maj', 'E:maj', 'B:maj']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(15.273492, 18.175986), (17.061428, 19.963922)]</t>
+          <t>[['Eb', 'Bb', 'F']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(57.045249, 64.511561), (48.640189, 54.971273)]</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:389QX9Q1eUOEZ19vtzzI9O</t>
+          <t>[('0:01:03.080000', '0:01:11.120000')]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[('0:00:29.719863', '0:00:35.722222')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:3Am0IbOxmvlSXro7N5iSfZ</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_97</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_75</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.3095238095238095</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj']]</t>
-        </is>
+          <t>schubert-winterreise_182</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>isophonics_107</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.45</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(8.54, 22.56)]</t>
+          <t>[['E', 'A', 'E']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(45.72, 54.38)]</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
+          <t>[('0:02:34.020000', '0:02:39.240000')]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[('0:00:15.027029', '0:00:21.737596')]</t>
+        </is>
+      </c>
       <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_123</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_198</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.2392241379310345</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['F:min', 'C:maj/F', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_73</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_82</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.3726708074534161</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['E:min', 'B:maj', 'E:min']]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(5.84, 12.72)]</t>
+          <t>[['G:maj/B', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(81.42, 90.04)]</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
+          <t>[('0:01:06.920000', '0:01:10.300000')]</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[('0:00:20.600000', '0:00:24.180000')]</t>
+        </is>
+      </c>
       <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>isophonics_175</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>isophonics_3</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1448412698412698</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['C', 'C', 'G', 'A:min', 'A:min/b7']]</t>
-        </is>
+          <t>schubert-winterreise_83</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>isophonics_136</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.4487804878048781</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['G', 'G', 'D/3', 'E:min', 'E:min/b7']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(11.651179, 18.129546)]</t>
+          <t>[['A', 'D/5', 'A', 'D/5']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(78.061859, 83.344399)]</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:68BTFws92cRztMS1oQ7Ewj</t>
-        </is>
-      </c>
+          <t>[('0:02:12.300000', '0:02:17.480000')]</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[('0:00:00.939000', '0:00:04.875000')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>jaah_54</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>jaah_6</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.06361746361746362</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['Eb', 'Eb', 'Eb:7'], ['Eb', 'Bb:7', 'Eb'], ['Eb', 'Eb', 'Bb:7'], ['Eb:7', 'Ab:7', 'Ab:7']]</t>
-        </is>
+          <t>schubert-winterreise_198</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_26</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.6708333333333334</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['Eb', 'Eb', 'Eb:7'], ['Eb', 'Bb:7', 'Eb'], ['Eb', 'Eb', 'Bb:7'], ['Eb:7', 'Ab:7', 'Ab:7']]</t>
+          <t>[['E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(7.92, 15.14), (36.82, 47.63), (22.37, 33.31), (13.3, 22.37)]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(164.26, 168.06), (14.3, 15.21), (200.58, 201.51), (135.47, 136.39)]</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
+          <t>[('0:00:25.720000', '0:00:51.960000')]</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[('0:01:59.320000', '0:02:01.920000')]</t>
+        </is>
+      </c>
       <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_133</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_69</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.2426470588235294</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['D/2', 'D/3', 'G', 'D']]</t>
-        </is>
+          <t>schubert-winterreise_198</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>isophonics_234</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.3541666666666666</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['E', 'E', 'A', 'E']]</t>
+          <t>[['E:maj/G#', 'A:maj', 'E:maj']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(56.75352, 73.909779)]</t>
+          <t>[['Eb/5', 'Ab/2', 'Eb']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(22.125076, 36.625937)]</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
+          <t>[('0:00:55.180000', '0:01:02.060000')]</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[('0:01:15.439000', '0:01:23.381000')]</t>
+        </is>
+      </c>
       <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>jaah_41</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>jaah_14</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.09788146956288549</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['F', 'F', 'F', 'F', 'F']]</t>
-        </is>
+          <t>schubert-winterreise_87</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_135</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['Ab', 'Ab', 'Ab', 'Ab', 'Ab']]</t>
+          <t>[['A#:min', 'F:7/A#', 'F:(3,5,b7,b9)/A#', 'A#:min', 'F:(3,5,b7,b9)/A#', 'A#:min']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(133.33, 139.23)]</t>
+          <t>[['B:min', 'F#:7/B', 'F#:(3,5,b7,b9)/B', 'B:min', 'F#:(3,5,b7,b9)/B', 'B:min']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(127.1, 136.6)]</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
+          <t>[('0:00:10.700000', '0:00:35.520000')]</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[('0:00:13.600000', '0:00:44.080000')]</t>
+        </is>
+      </c>
       <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>jaah_52</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>jaah_22</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.08370288248337029</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['F', 'F', 'F', 'F', 'F']]</t>
-        </is>
+          <t>schubert-winterreise_31</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_130</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.7083333333333333</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['Bb', 'Bb', 'Bb', 'Bb', 'Bb']]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(0.59, 9.55)]</t>
+          <t>[['B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(66.74, 76.36)]</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
+          <t>[('0:00:30.020000', '0:00:44.280000')]</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[('0:00:16.440000', '0:00:45.540000')]</t>
+        </is>
+      </c>
       <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_226</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>jaah_69</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.1655405405405405</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['E', 'E/7', 'E/6']]</t>
-        </is>
+          <t>schubert-winterreise_76</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_190</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['Eb', 'Eb', 'Eb']]</t>
+          <t>[['D#:(3,b5,b7)/G', 'G#:maj', 'D#:(3,b5,b7)/A', 'G#:maj', 'D#:(3,b5,b7)/A', 'G#:maj', 'D#:(3,b5,b7)/A', 'G#:maj', 'D#:(3,b5,b7)/A', 'G#:maj', 'D#:(3,b5,b7)/A']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(80.022335, 82.80873)]</t>
+          <t>[['D#:(3,b5,b7)/G', 'G#:maj', 'D#:(3,b5,b7)/A', 'G#:maj', 'D#:(3,b5,b7)/A', 'G#:maj', 'D#:(3,b5,b7)/A', 'G#:maj', 'D#:(3,b5,b7)/A', 'G#:maj', 'D#:(3,b5,b7)/A']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(16.13, 24.98)]</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
+          <t>[('0:00:55.560000', '0:01:00.520000')]</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[('0:00:41', '0:00:45.320000')]</t>
+        </is>
+      </c>
       <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_123</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_59</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.2392241379310345</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['E', 'A', 'E']]</t>
-        </is>
+          <t>schubert-winterreise_18</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_136</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['E:maj/G#', 'A:maj', 'E:maj']]</t>
+          <t>[['F:maj', 'C:maj', 'C:min', 'G:min/D', 'D:7', 'G:min', 'A#:maj', 'A#:min', 'C:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'C:7', 'F:maj', 'F:maj', 'F:7', 'A#:maj', 'D:(3,5,b7,b9)/A#', 'G:min/A#', 'F:maj/C', 'C:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(8.413696, 11.072593)]</t>
+          <t>[['F:maj', 'C:maj', 'C:min', 'G:min/D', 'D:7', 'G:min', 'A#:maj', 'A#:min', 'C:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'C:7', 'F:maj', 'F:maj', 'F:7', 'A#:maj', 'D:(3,5,b7,b9)/A#', 'G:min/A#', 'F:maj/C', 'C:maj']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(59.22, 66.88)]</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
+          <t>[('0:00:47.800000', '0:01:38.980000')]</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[('0:00:49.020000', '0:01:44.600000')]</t>
+        </is>
+      </c>
       <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_215</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_37</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.2873563218390804</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_83</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_90</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
+          <t>[['G:maj', 'E:7/G#', 'A:min', 'D:7/F#', 'G:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(22.3, 49.66)]</t>
+          <t>[['G:maj', 'E:7/G#', 'A:min', 'D:7/F#', 'G:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(45.58, 59.1)]</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
+          <t>[('0:01:10.340000', '0:01:17.220000')]</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[('0:01:20.920000', '0:01:29.040000')]</t>
+        </is>
+      </c>
       <c r="I16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>isophonics_182</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>isophonics_139</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.1414473684210526</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['C/5', 'D/3', 'G']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['C', 'D', 'G']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(33.466326, 38.923015)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(51.85331, 57.05458)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:25yQPHgC35WNnnOUqFhgVR</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
